--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H2">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I2">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J2">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>112.998709895126</v>
+        <v>43.70144598788712</v>
       </c>
       <c r="R2">
-        <v>1016.988389056134</v>
+        <v>393.3130138909841</v>
       </c>
       <c r="S2">
-        <v>0.007017900477560994</v>
+        <v>0.003992876905988895</v>
       </c>
       <c r="T2">
-        <v>0.00840689944940059</v>
+        <v>0.004426544359878591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H3">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I3">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J3">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>174.1154194544814</v>
+        <v>77.50387824166046</v>
       </c>
       <c r="R3">
-        <v>1567.038775090332</v>
+        <v>697.534904174944</v>
       </c>
       <c r="S3">
-        <v>0.01081361624813597</v>
+        <v>0.00708130906335402</v>
       </c>
       <c r="T3">
-        <v>0.01295387199820738</v>
+        <v>0.007850411979375471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H4">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I4">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J4">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>75.51464585897764</v>
+        <v>44.51669828463734</v>
       </c>
       <c r="R4">
-        <v>679.6318127307987</v>
+        <v>400.650284561736</v>
       </c>
       <c r="S4">
-        <v>0.004689914333786808</v>
+        <v>0.004067364191127025</v>
       </c>
       <c r="T4">
-        <v>0.005618152944247929</v>
+        <v>0.004509121729447963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H5">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I5">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J5">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>43.8101116722795</v>
+        <v>14.386424872204</v>
       </c>
       <c r="R5">
-        <v>262.860670033677</v>
+        <v>86.31854923322402</v>
       </c>
       <c r="S5">
-        <v>0.002720871803866075</v>
+        <v>0.001314446749608453</v>
       </c>
       <c r="T5">
-        <v>0.002172928664629242</v>
+        <v>0.0009714727806264154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.402403</v>
+        <v>1.514509333333333</v>
       </c>
       <c r="H6">
-        <v>10.207209</v>
+        <v>4.543528</v>
       </c>
       <c r="I6">
-        <v>0.0331689871348592</v>
+        <v>0.01996786707219448</v>
       </c>
       <c r="J6">
-        <v>0.03864740487441061</v>
+        <v>0.02165084619119693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>127.6314902570173</v>
+        <v>38.43689846185689</v>
       </c>
       <c r="R6">
-        <v>1148.683412313156</v>
+        <v>345.932086156712</v>
       </c>
       <c r="S6">
-        <v>0.00792668427150935</v>
+        <v>0.003511870162116085</v>
       </c>
       <c r="T6">
-        <v>0.009495551817925463</v>
+        <v>0.003893295341868499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>148.519018</v>
       </c>
       <c r="I7">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J7">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>1644.176917401319</v>
+        <v>1428.514547131884</v>
       </c>
       <c r="R7">
-        <v>14797.59225661187</v>
+        <v>12856.63092418696</v>
       </c>
       <c r="S7">
-        <v>0.1021132894750259</v>
+        <v>0.130519313861904</v>
       </c>
       <c r="T7">
-        <v>0.1223237861250531</v>
+        <v>0.1446950522727288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>148.519018</v>
       </c>
       <c r="I8">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J8">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>2533.449752624608</v>
+        <v>2533.449752624607</v>
       </c>
       <c r="R8">
         <v>22801.04777362147</v>
       </c>
       <c r="S8">
-        <v>0.1573424886471904</v>
+        <v>0.231474102997459</v>
       </c>
       <c r="T8">
-        <v>0.1884840751738755</v>
+        <v>0.2566145686946975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>148.519018</v>
       </c>
       <c r="I9">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J9">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>1098.768629856911</v>
+        <v>1455.163545561207</v>
       </c>
       <c r="R9">
-        <v>9888.917668712198</v>
+        <v>13096.47191005087</v>
       </c>
       <c r="S9">
-        <v>0.06824014981550207</v>
+        <v>0.1329541571031476</v>
       </c>
       <c r="T9">
-        <v>0.08174639690962647</v>
+        <v>0.1473943445049911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>148.519018</v>
       </c>
       <c r="I10">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J10">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>637.4548384418591</v>
+        <v>470.2640094988991</v>
       </c>
       <c r="R10">
-        <v>3824.729030651155</v>
+        <v>2821.584056993395</v>
       </c>
       <c r="S10">
-        <v>0.03958978486813371</v>
+        <v>0.04296668590248357</v>
       </c>
       <c r="T10">
-        <v>0.0316169906440425</v>
+        <v>0.03175553961423032</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>148.519018</v>
       </c>
       <c r="I11">
-        <v>0.4826221739286344</v>
+        <v>0.6527104067845205</v>
       </c>
       <c r="J11">
-        <v>0.5623353671112131</v>
+        <v>0.7077236929508544</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>1857.089788094746</v>
+        <v>1256.42681513588</v>
       </c>
       <c r="R11">
-        <v>16713.80809285271</v>
+        <v>11307.84133622292</v>
       </c>
       <c r="S11">
-        <v>0.1153364611227824</v>
+        <v>0.1147961469195264</v>
       </c>
       <c r="T11">
-        <v>0.1381641182586155</v>
+        <v>0.1272641878642068</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H12">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I12">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J12">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>87.01737667756467</v>
+        <v>109.4966333321731</v>
       </c>
       <c r="R12">
-        <v>783.1563900980821</v>
+        <v>985.4696999895581</v>
       </c>
       <c r="S12">
-        <v>0.00540430319875649</v>
+        <v>0.01000439616201144</v>
       </c>
       <c r="T12">
-        <v>0.006473935293224584</v>
+        <v>0.01109097636807187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H13">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I13">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J13">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>134.0817700848485</v>
+        <v>194.1906851320365</v>
       </c>
       <c r="R13">
-        <v>1206.735930763636</v>
+        <v>1747.716166188328</v>
       </c>
       <c r="S13">
-        <v>0.008327285498958326</v>
+        <v>0.01774265094653353</v>
       </c>
       <c r="T13">
-        <v>0.009975440959875858</v>
+        <v>0.01966968512324356</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H14">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I14">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J14">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>58.15187084420855</v>
+        <v>111.5392975917313</v>
       </c>
       <c r="R14">
-        <v>523.366837597877</v>
+        <v>1003.853678325582</v>
       </c>
       <c r="S14">
-        <v>0.003611581429092397</v>
+        <v>0.01019102858948167</v>
       </c>
       <c r="T14">
-        <v>0.004326393915784679</v>
+        <v>0.01129787899458402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H15">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I15">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J15">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>33.73703109717851</v>
+        <v>36.046063318573</v>
       </c>
       <c r="R15">
-        <v>202.422186583071</v>
+        <v>216.276379911438</v>
       </c>
       <c r="S15">
-        <v>0.002095272829823622</v>
+        <v>0.003293426350616327</v>
       </c>
       <c r="T15">
-        <v>0.001673316025280357</v>
+        <v>0.002434084192132248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.620102333333334</v>
+        <v>3.794695333333333</v>
       </c>
       <c r="H16">
-        <v>7.860307000000001</v>
+        <v>11.384086</v>
       </c>
       <c r="I16">
-        <v>0.02554257699230453</v>
+        <v>0.05003070653167101</v>
       </c>
       <c r="J16">
-        <v>0.0297613644499847</v>
+        <v>0.05424751316892035</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>98.28570143784312</v>
+        <v>96.30598901625488</v>
       </c>
       <c r="R16">
-        <v>884.5713129405881</v>
+        <v>866.753901146294</v>
       </c>
       <c r="S16">
-        <v>0.006104134035673694</v>
+        <v>0.008799204483028044</v>
       </c>
       <c r="T16">
-        <v>0.007312278255819222</v>
+        <v>0.009754888490888663</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H17">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I17">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J17">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>1448.76297355801</v>
+        <v>510.3748176953149</v>
       </c>
       <c r="R17">
-        <v>8692.57784134806</v>
+        <v>3062.248906171889</v>
       </c>
       <c r="S17">
-        <v>0.08997690658098383</v>
+        <v>0.0466314964392427</v>
       </c>
       <c r="T17">
-        <v>0.07185689498001453</v>
+        <v>0.034464104022545</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H18">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I18">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J18">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>2232.343829989647</v>
+        <v>905.1423090034874</v>
       </c>
       <c r="R18">
-        <v>13394.06297993788</v>
+        <v>5430.853854020924</v>
       </c>
       <c r="S18">
-        <v>0.1386419972856737</v>
+        <v>0.08270028006064668</v>
       </c>
       <c r="T18">
-        <v>0.110721559757219</v>
+        <v>0.06112158674593071</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H19">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I19">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J19">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>968.1776277213181</v>
+        <v>519.8958811961635</v>
       </c>
       <c r="R19">
-        <v>5809.065766327909</v>
+        <v>3119.375287176981</v>
       </c>
       <c r="S19">
-        <v>0.06012966203114484</v>
+        <v>0.04750140894931226</v>
       </c>
       <c r="T19">
-        <v>0.04802044184378425</v>
+        <v>0.03510703331984116</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H20">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I20">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J20">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>561.6919672547326</v>
+        <v>168.0143255093573</v>
       </c>
       <c r="R20">
-        <v>2246.76786901893</v>
+        <v>672.0573020374291</v>
       </c>
       <c r="S20">
-        <v>0.03488445424640365</v>
+        <v>0.01535099136965761</v>
       </c>
       <c r="T20">
-        <v>0.01857282911412238</v>
+        <v>0.00756367410887036</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.622405</v>
+        <v>17.6874565</v>
       </c>
       <c r="H21">
-        <v>87.24481</v>
+        <v>35.374913</v>
       </c>
       <c r="I21">
-        <v>0.4252614961357069</v>
+        <v>0.2331981536620147</v>
       </c>
       <c r="J21">
-        <v>0.3303337371911389</v>
+        <v>0.1685687422615142</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>1636.370694108007</v>
+        <v>448.8918982378961</v>
       </c>
       <c r="R21">
-        <v>9818.22416464804</v>
+        <v>2693.351389427377</v>
       </c>
       <c r="S21">
-        <v>0.101628475991501</v>
+        <v>0.04101397684315549</v>
       </c>
       <c r="T21">
-        <v>0.08116201149599873</v>
+        <v>0.03031234406432697</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H22">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I22">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J22">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>113.8019507608573</v>
+        <v>96.50114320075934</v>
       </c>
       <c r="R22">
-        <v>1024.217556847716</v>
+        <v>868.5102888068341</v>
       </c>
       <c r="S22">
-        <v>0.007067786573255753</v>
+        <v>0.008817035166173654</v>
       </c>
       <c r="T22">
-        <v>0.00846665911566687</v>
+        <v>0.009774655769412223</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H23">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I23">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J23">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>175.3531027907743</v>
+        <v>171.1433725759493</v>
       </c>
       <c r="R23">
-        <v>1578.177925116968</v>
+        <v>1540.290353183544</v>
       </c>
       <c r="S23">
-        <v>0.01089048383790669</v>
+        <v>0.01563688350634826</v>
       </c>
       <c r="T23">
-        <v>0.01304595339779212</v>
+        <v>0.01733520970488364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H24">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I24">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J24">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>76.05143472649176</v>
+        <v>98.301376050154</v>
       </c>
       <c r="R24">
-        <v>684.4629125384259</v>
+        <v>884.712384451386</v>
       </c>
       <c r="S24">
-        <v>0.004723252155547543</v>
+        <v>0.008981517324767282</v>
       </c>
       <c r="T24">
-        <v>0.005658089064217238</v>
+        <v>0.009957002380280999</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H25">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I25">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J25">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>44.12153179433301</v>
+        <v>31.76797507167901</v>
       </c>
       <c r="R25">
-        <v>264.7291907659981</v>
+        <v>190.607850430074</v>
       </c>
       <c r="S25">
-        <v>0.002740212869134075</v>
+        <v>0.002902549587235541</v>
       </c>
       <c r="T25">
-        <v>0.002188374726830918</v>
+        <v>0.002145197528357623</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.426588666666667</v>
+        <v>3.344326</v>
       </c>
       <c r="H26">
-        <v>10.279766</v>
+        <v>10.032978</v>
       </c>
       <c r="I26">
-        <v>0.03340476580849506</v>
+        <v>0.04409286594959943</v>
       </c>
       <c r="J26">
-        <v>0.03892212637325252</v>
+        <v>0.04780920542751418</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>128.5387468869716</v>
+        <v>84.87601631508467</v>
       </c>
       <c r="R26">
-        <v>1156.848721982744</v>
+        <v>763.884146835762</v>
       </c>
       <c r="S26">
-        <v>0.007983030372650995</v>
+        <v>0.007754880365074698</v>
       </c>
       <c r="T26">
-        <v>0.009563050068745372</v>
+        <v>0.008597140044579702</v>
       </c>
     </row>
   </sheetData>
